--- a/resources/elements.xlsx
+++ b/resources/elements.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="242">
   <si>
     <t>name</t>
   </si>
@@ -186,6 +186,9 @@
     <t>acoustic-electric</t>
   </si>
   <si>
+    <t>zesty</t>
+  </si>
+  <si>
     <t>*promo*</t>
   </si>
   <si>
@@ -240,6 +243,9 @@
     <t>alien</t>
   </si>
   <si>
+    <t>king gizard, the</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
@@ -258,6 +264,12 @@
     <t>firstLetter</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
@@ -327,15 +339,21 @@
     <t>abstract, emotion</t>
   </si>
   <si>
+    <t>classic, notebook</t>
+  </si>
+  <si>
+    <t>emotion</t>
+  </si>
+  <si>
+    <t>fancy</t>
+  </si>
+  <si>
+    <t>basic, emotion</t>
+  </si>
+  <si>
     <t>shiny</t>
   </si>
   <si>
-    <t>basic, emotion</t>
-  </si>
-  <si>
-    <t>emotion</t>
-  </si>
-  <si>
     <t>rollWeight</t>
   </si>
   <si>
@@ -354,10 +372,7 @@
     <t>shirt</t>
   </si>
   <si>
-    <t>socks</t>
-  </si>
-  <si>
-    <t>regalia</t>
+    <t>sock</t>
   </si>
   <si>
     <t>earring (1)</t>
@@ -408,9 +423,6 @@
     <t>jean jacket</t>
   </si>
   <si>
-    <t>knife</t>
-  </si>
-  <si>
     <t>sword</t>
   </si>
   <si>
@@ -423,27 +435,18 @@
     <t>escapement</t>
   </si>
   <si>
-    <t>axe</t>
-  </si>
-  <si>
-    <t>daggers</t>
-  </si>
-  <si>
-    <t>mace</t>
-  </si>
-  <si>
-    <t>flail</t>
-  </si>
-  <si>
     <t>stick</t>
   </si>
   <si>
-    <t>gyro</t>
+    <t>gyroscope</t>
   </si>
   <si>
     <t>broadsword</t>
   </si>
   <si>
+    <t>moss</t>
+  </si>
+  <si>
     <t>bug</t>
   </si>
   <si>
@@ -474,9 +477,6 @@
     <t>sticky note</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>portent</t>
   </si>
   <si>
@@ -501,21 +501,9 @@
     <t>hand saw</t>
   </si>
   <si>
-    <t>pickaxe</t>
-  </si>
-  <si>
     <t>spoon</t>
   </si>
   <si>
-    <t>fork</t>
-  </si>
-  <si>
-    <t>chopsticks</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
     <t>wings</t>
   </si>
   <si>
@@ -549,16 +537,31 @@
     <t>aluminum can</t>
   </si>
   <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>knight</t>
   </si>
   <si>
-    <t>basic, runner</t>
+    <t>basic, lgbt</t>
   </si>
   <si>
     <t>classic, knight</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>basic, bad</t>
+  </si>
+  <si>
+    <t>wizard, throw</t>
+  </si>
+  <si>
+    <t>knight, classic</t>
+  </si>
+  <si>
+    <t>lgbt, cute</t>
+  </si>
+  <si>
+    <t>emotion, notebook</t>
   </si>
   <si>
     <t>of truth</t>
@@ -612,6 +615,12 @@
     <t>of swimming</t>
   </si>
   <si>
+    <t>of zooming</t>
+  </si>
+  <si>
+    <t>of zigazag</t>
+  </si>
+  <si>
     <t>of climbing</t>
   </si>
   <si>
@@ -627,9 +636,6 @@
     <t>*Taylor's Version*</t>
   </si>
   <si>
-    <t>of centering</t>
-  </si>
-  <si>
     <t>of time</t>
   </si>
   <si>
@@ -639,6 +645,9 @@
     <t>of punctuality</t>
   </si>
   <si>
+    <t>of gluttony</t>
+  </si>
+  <si>
     <t>of flight</t>
   </si>
   <si>
@@ -654,12 +663,12 @@
     <t>of sloth</t>
   </si>
   <si>
-    <t>of gluttony</t>
-  </si>
-  <si>
     <t>of the moon</t>
   </si>
   <si>
+    <t>of eclipses</t>
+  </si>
+  <si>
     <t>of the sun</t>
   </si>
   <si>
@@ -675,6 +684,9 @@
     <t>of clowning</t>
   </si>
   <si>
+    <t>from beta</t>
+  </si>
+  <si>
     <t>from fortnight</t>
   </si>
   <si>
@@ -687,6 +699,9 @@
     <t>s</t>
   </si>
   <si>
+    <t>z</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
@@ -696,17 +711,41 @@
     <t>T</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
-    <t>level</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>bad, abstract, wizard, machine, baseball, emotion, gun, throw, knight, classic, lgbt, cute, patriotic, gold, audio, basic, fancy</t>
+  </si>
+  <si>
+    <t>bad, classic</t>
+  </si>
+  <si>
+    <t>bad, patriotic</t>
+  </si>
+  <si>
+    <t>lgbt, bad</t>
+  </si>
+  <si>
+    <t>baseball, emotion</t>
+  </si>
+  <si>
+    <t>classic, abstract</t>
+  </si>
+  <si>
+    <t>cute, lgbt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -715,6 +754,15 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -733,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -743,7 +791,15 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1197,703 +1253,727 @@
       <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="BY1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>7.0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>11.0</v>
       </c>
-      <c r="E2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>-3.0</v>
       </c>
-      <c r="G2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="G2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.0</v>
       </c>
-      <c r="L2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="L2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M2" s="1">
         <v>7.0</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>15.0</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>7.0</v>
       </c>
-      <c r="P2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="P2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>2.0</v>
       </c>
-      <c r="R2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="W2" s="2">
+      <c r="R2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W2" s="1">
         <v>7.0</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>10.0</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>3.0</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>10.0</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>11.0</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>7.0</v>
       </c>
-      <c r="AC2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AE2" s="2">
+      <c r="AC2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE2" s="1">
         <v>2.0</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>3.0</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>-4.0</v>
       </c>
-      <c r="AH2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AI2" s="2">
+      <c r="AH2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AI2" s="1">
         <v>8.0</v>
       </c>
-      <c r="AJ2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AK2" s="2">
+      <c r="AJ2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AK2" s="1">
         <v>10.0</v>
       </c>
-      <c r="AL2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AM2" s="2">
+      <c r="AL2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AM2" s="1">
         <v>2.0</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="1">
         <v>12.0</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="1">
         <v>3.0</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2" s="1">
         <v>11.0</v>
       </c>
-      <c r="AQ2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AS2" s="2">
+      <c r="AQ2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AS2" s="1">
         <v>0.0</v>
       </c>
-      <c r="AT2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AW2" s="2">
+      <c r="AT2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AW2" s="1">
         <v>-5.0</v>
       </c>
-      <c r="AX2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AY2" s="2">
+      <c r="AX2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AY2" s="1">
         <v>2.0</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2" s="1">
         <v>13.0</v>
       </c>
-      <c r="BA2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="BB2" s="2">
+      <c r="BA2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BB2" s="1">
         <v>2.0</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2" s="1">
         <v>-8.0</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2" s="1">
         <v>7.0</v>
       </c>
-      <c r="BE2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BF2" s="2">
+      <c r="BE2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BG2" s="1">
         <v>7.0</v>
       </c>
-      <c r="BG2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BH2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BI2" s="2">
+      <c r="BH2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BJ2" s="1">
         <v>-15.0</v>
       </c>
-      <c r="BJ2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BK2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="BL2" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="BM2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BN2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BO2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BP2" s="2">
+      <c r="BK2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BQ2" s="1">
         <v>13.0</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BR2" s="1">
         <v>13.0</v>
       </c>
-      <c r="BR2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BS2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BT2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BU2" s="2">
+      <c r="BS2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BV2" s="1">
         <v>7.0</v>
       </c>
-      <c r="BV2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BX2" s="2">
+      <c r="BW2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BZ2" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
         <v>-4.0</v>
       </c>
-      <c r="E3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F3" s="1">
         <v>11.0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>3.0</v>
       </c>
-      <c r="I3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J3" s="1">
         <v>7.0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>7.0</v>
       </c>
-      <c r="L3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="L3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M3" s="1">
         <v>2.0</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>7.0</v>
       </c>
-      <c r="P3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="P3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R3" s="1">
         <v>2.0</v>
       </c>
-      <c r="S3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="S3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="V3" s="1">
         <v>7.0</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>3.0</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>-5.0</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>0.0</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>7.0</v>
       </c>
-      <c r="AC3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AG3" s="2">
+      <c r="AC3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AG3" s="1">
         <v>-4.0</v>
       </c>
-      <c r="AH3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AK3" s="2">
+      <c r="AH3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AK3" s="1">
         <v>7.0</v>
       </c>
-      <c r="AL3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AN3" s="2">
+      <c r="AL3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AN3" s="1">
         <v>7.0</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="1">
         <v>3.0</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="1">
         <v>7.0</v>
       </c>
-      <c r="AQ3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AR3" s="2">
+      <c r="AQ3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AR3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="1">
         <v>15.0</v>
       </c>
-      <c r="AT3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV3" s="2">
+      <c r="AT3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3" s="1">
         <v>-5.0</v>
       </c>
-      <c r="AX3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AY3" s="2">
+      <c r="AX3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AY3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AZ3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="BB3" s="2">
+      <c r="AZ3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BB3" s="1">
         <v>-1.0</v>
       </c>
-      <c r="BC3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BD3" s="2">
+      <c r="BC3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BD3" s="1">
         <v>8.0</v>
       </c>
-      <c r="BE3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BF3" s="2">
+      <c r="BE3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BG3" s="1">
         <v>8.0</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BH3" s="1">
         <v>8.0</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BI3" s="1">
         <v>7.0</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BJ3" s="1">
         <v>-15.0</v>
       </c>
-      <c r="BJ3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BK3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BL3" s="2">
+      <c r="BK3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BM3" s="1">
         <v>2.0</v>
       </c>
-      <c r="BM3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BN3" s="2">
+      <c r="BN3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BO3" s="1">
         <v>3.0</v>
       </c>
-      <c r="BO3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BP3" s="2">
+      <c r="BP3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BQ3" s="1">
         <v>2.0</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BR3" s="1">
         <v>12.0</v>
       </c>
-      <c r="BR3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BS3" s="2">
+      <c r="BS3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BT3" s="1">
         <v>3.0</v>
       </c>
-      <c r="BT3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BV3" s="2">
+      <c r="BU3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BW3" s="1">
         <v>13.0</v>
       </c>
-      <c r="BW3" s="2">
+      <c r="BX3" s="1">
         <v>3.0</v>
       </c>
-      <c r="BX3" s="2">
+      <c r="BY3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BZ3" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>7.0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>-4.0</v>
       </c>
-      <c r="E4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="1">
         <v>2.0</v>
       </c>
-      <c r="G4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H4" s="1">
         <v>11.0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>7.0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>7.0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>8.0</v>
       </c>
-      <c r="L4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M4" s="1">
         <v>7.0</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.0</v>
       </c>
-      <c r="O4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="O4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="T4" s="1">
         <v>10.0</v>
       </c>
-      <c r="U4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="U4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="V4" s="1">
         <v>3.0</v>
       </c>
-      <c r="W4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="X4" s="2">
+      <c r="W4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="X4" s="1">
         <v>10.0</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>12.0</v>
       </c>
-      <c r="Z4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AC4" s="2">
+      <c r="Z4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC4" s="1">
         <v>3.0</v>
       </c>
-      <c r="AD4" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AG4" s="2">
+      <c r="AD4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AG4" s="1">
         <v>23.0</v>
       </c>
-      <c r="AH4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AJ4" s="2">
+      <c r="AH4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ4" s="1">
         <v>2.0</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="1">
         <v>3.0</v>
       </c>
-      <c r="AL4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AN4" s="2">
+      <c r="AL4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AN4" s="1">
         <v>-4.0</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="1">
         <v>-2.0</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="1">
         <v>-8.0</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AR4" s="2">
+      <c r="AQ4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AR4" s="1">
         <v>10.0</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="1">
         <v>0.0</v>
       </c>
-      <c r="AT4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AW4" s="2">
+      <c r="AT4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AW4" s="1">
         <v>-5.0</v>
       </c>
-      <c r="AX4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AY4" s="2">
+      <c r="AX4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AY4" s="1">
         <v>13.0</v>
       </c>
-      <c r="AZ4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="BB4" s="2">
+      <c r="AZ4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BB4" s="1">
         <v>-9.0</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BC4" s="1">
         <v>2.0</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BD4" s="1">
         <v>0.0</v>
       </c>
-      <c r="BE4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BG4" s="2">
+      <c r="BE4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BH4" s="1">
         <v>7.0</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BI4" s="1">
         <v>8.0</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BJ4" s="1">
         <v>-15.0</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BK4" s="1">
         <v>7.0</v>
       </c>
-      <c r="BK4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BL4" s="2">
+      <c r="BL4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BM4" s="1">
         <v>7.0</v>
       </c>
-      <c r="BM4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="BN4" s="2">
+      <c r="BN4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BO4" s="1">
         <v>7.0</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BP4" s="1">
         <v>15.0</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="BQ4" s="1">
         <v>0.0</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BR4" s="1">
         <v>10.0</v>
       </c>
-      <c r="BR4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BS4" s="2">
+      <c r="BS4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BT4" s="1">
         <v>3.0</v>
       </c>
-      <c r="BT4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="BU4" s="2">
+      <c r="BU4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BV4" s="1">
         <v>7.0</v>
       </c>
-      <c r="BV4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BW4" s="2">
+      <c r="BW4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BX4" s="1">
         <v>8.0</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="BY4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BZ4" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:BX5" si="1">LEFT(B1)</f>
+        <f t="shared" ref="B5:BF5" si="1">LEFT(B1)</f>
         <v>_</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -2118,538 +2198,556 @@
       </c>
       <c r="BF5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
-      </c>
-      <c r="BG5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <v>z</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="1" t="str">
+        <f t="shared" ref="BH5:BX5" si="2">LEFT(BH1)</f>
         <v>f</v>
       </c>
-      <c r="BH5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BI5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="BI5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BJ5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>c</v>
       </c>
-      <c r="BJ5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BK5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>P</v>
       </c>
-      <c r="BK5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BL5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Z</v>
       </c>
-      <c r="BL5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BM5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>d</v>
       </c>
-      <c r="BM5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BN5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
-      <c r="BN5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BO5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>w</v>
       </c>
-      <c r="BO5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BP5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>t</v>
       </c>
-      <c r="BP5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BQ5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="BQ5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BR5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>r</v>
       </c>
-      <c r="BR5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BS5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>d</v>
       </c>
-      <c r="BS5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BT5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
-      <c r="BT5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BU5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>s</v>
       </c>
-      <c r="BU5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BV5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>s</v>
       </c>
-      <c r="BV5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BW5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="BW5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BX5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="BX5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BY5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ5" s="1" t="str">
+        <f>LEFT(BZ1)</f>
         <v>e</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AQ6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AD6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AX6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM6" s="2" t="s">
+      <c r="BY6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1">
         <v>16.0</v>
       </c>
-      <c r="C7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BJ7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BN7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="BX7" s="2">
+      <c r="C7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="BZ7" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -2668,233 +2766,206 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="I1" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="U1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BA1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BP1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BS1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>177</v>
-      </c>
     </row>
-    <row r="2">
+    <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -2903,52 +2974,592 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AF2" s="1">
         <v>0.0</v>
       </c>
+      <c r="AG2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>-5.0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>-10.0</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" ht="21.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
       <c r="C3" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D3" s="1">
         <v>10.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>6.0</v>
-      </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>-6.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="21.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>-2.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:BV5" si="1">LEFT(B1)</f>
+        <f t="shared" ref="B5:AN5" si="1">LEFT(B1)</f>
         <v>_</v>
       </c>
       <c r="C5" s="1" t="str">
@@ -2977,304 +3588,432 @@
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>r</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>h</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>h</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>p</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>j</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>g</v>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="AD5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>e</v>
       </c>
-      <c r="K5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>r</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>r</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="AF5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>g</v>
+      </c>
+      <c r="AG5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="AH5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>m</v>
+      </c>
+      <c r="AI5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="AJ5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="AK5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="AM5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="AN5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP5" s="1" t="str">
+        <f t="shared" ref="AP5:BM5" si="2">LEFT(AP1)</f>
+        <v>c</v>
+      </c>
+      <c r="AQ5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>z</v>
+      </c>
+      <c r="AR5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="AS5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>p</v>
+      </c>
+      <c r="AT5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>t</v>
+      </c>
+      <c r="AU5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>c</v>
+      </c>
+      <c r="AV5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>g</v>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>b</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>k</v>
+      </c>
+      <c r="AY5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>m</v>
+      </c>
+      <c r="AZ5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>h</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BA5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="BB5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>w</v>
+      </c>
+      <c r="BC5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>a</v>
+      </c>
+      <c r="BD5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>c</v>
       </c>
-      <c r="O5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BE5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>a</v>
+      </c>
+      <c r="BF5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>b</v>
       </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>r</v>
-      </c>
-      <c r="Q5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>h</v>
-      </c>
-      <c r="R5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>k</v>
-      </c>
-      <c r="S5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="BG5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>g</v>
+      </c>
+      <c r="BH5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>p</v>
+      </c>
+      <c r="BI5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="BJ5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>c</v>
+      </c>
+      <c r="BK5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>l</v>
+      </c>
+      <c r="BL5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>n</v>
+      </c>
+      <c r="BM5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>a</v>
       </c>
-      <c r="T5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="U5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="V5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>p</v>
-      </c>
-      <c r="W5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>d</v>
-      </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>j</v>
-      </c>
-      <c r="Z5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>g</v>
-      </c>
-      <c r="AA5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>k</v>
-      </c>
-      <c r="AB5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="AC5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>r</v>
-      </c>
-      <c r="AD5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="AE5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>e</v>
-      </c>
-      <c r="AF5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>a</v>
-      </c>
-      <c r="AG5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>d</v>
-      </c>
-      <c r="AH5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>m</v>
-      </c>
-      <c r="AI5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="AJ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="AK5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>g</v>
-      </c>
-      <c r="AL5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="AM5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="AN5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="AO5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>a</v>
-      </c>
-      <c r="AP5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="AQ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="AR5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>a</v>
-      </c>
-      <c r="AS5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>U</v>
-      </c>
-      <c r="AT5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>c</v>
-      </c>
-      <c r="AU5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>z</v>
-      </c>
-      <c r="AV5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="AW5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>k</v>
-      </c>
-      <c r="AX5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>p</v>
-      </c>
-      <c r="AY5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>t</v>
-      </c>
-      <c r="AZ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>c</v>
-      </c>
-      <c r="BA5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>g</v>
-      </c>
-      <c r="BB5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="BC5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>k</v>
-      </c>
-      <c r="BD5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>m</v>
-      </c>
-      <c r="BE5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>h</v>
-      </c>
-      <c r="BF5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>p</v>
-      </c>
-      <c r="BG5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="BH5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>f</v>
-      </c>
-      <c r="BI5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>c</v>
-      </c>
-      <c r="BJ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>t</v>
-      </c>
-      <c r="BK5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>w</v>
-      </c>
-      <c r="BL5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>a</v>
-      </c>
-      <c r="BM5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>c</v>
-      </c>
-      <c r="BN5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>a</v>
-      </c>
-      <c r="BO5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>b</v>
-      </c>
-      <c r="BP5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>g</v>
-      </c>
-      <c r="BQ5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>p</v>
-      </c>
-      <c r="BR5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>s</v>
-      </c>
-      <c r="BS5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>c</v>
-      </c>
-      <c r="BT5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>l</v>
-      </c>
-      <c r="BU5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
-      <c r="BV5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>a</v>
-      </c>
     </row>
-    <row r="6">
+    <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="AF6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="AH6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="AJ6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7">
+    <row r="7" ht="21.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1">
         <v>16.0</v>
@@ -3286,6 +4025,186 @@
         <v>9.0</v>
       </c>
       <c r="E7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="BM7" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -3308,335 +4227,1053 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>221</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>99.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1">
+      <c r="V4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>-2.0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="AS4" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>LEFT(B1)</f>
         <v>_</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="4" t="str">
         <f t="shared" ref="C5:O5" si="1">MID(C1,4,1)</f>
         <v>t</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>i</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>b</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>h</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>p</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>a</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>g</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="K5" s="3" t="str">
+      <c r="K5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>h</v>
       </c>
-      <c r="L5" s="3" t="str">
+      <c r="L5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="M5" s="3" t="str">
+      <c r="M5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>w</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="N5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
-      <c r="O5" s="3" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>b</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R5" s="3" t="str">
-        <f t="shared" ref="R5:U5" si="2">MID(R1,4,1)</f>
+      <c r="P5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" ref="R5:S5" si="2">MID(R1,4,1)</f>
         <v>t</v>
       </c>
-      <c r="S5" s="3" t="str">
+      <c r="S5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>s</v>
       </c>
-      <c r="T5" s="3" t="str">
-        <f t="shared" si="2"/>
+      <c r="T5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" ref="V5:W5" si="3">MID(V1,4,1)</f>
         <v>c</v>
       </c>
-      <c r="U5" s="3" t="str">
-        <f t="shared" si="2"/>
+      <c r="W5" s="4" t="str">
+        <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA5" s="4" t="str">
+        <f>MID(AA1,4,1)</f>
+        <v>t</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC5" s="4" t="str">
+        <f>MID(AC1,4,1)</f>
+        <v>p</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Y5" s="3" t="str">
-        <f t="shared" ref="Y5:Z5" si="3">MID(Y1,4,1)</f>
-        <v>c</v>
-      </c>
-      <c r="Z5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>t</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB5" s="3" t="str">
-        <f t="shared" ref="AB5:AH5" si="4">MID(AB1,4,1)</f>
-        <v>p</v>
-      </c>
-      <c r="AC5" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="AE5" s="4" t="str">
+        <f t="shared" ref="AE5:AI5" si="4">MID(AE1,4,1)</f>
         <v>f</v>
       </c>
-      <c r="AD5" s="3" t="str">
+      <c r="AF5" s="4" t="str">
         <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="AE5" s="3" t="str">
+      <c r="AG5" s="4" t="str">
         <f t="shared" si="4"/>
         <v>w</v>
       </c>
-      <c r="AF5" s="3" t="str">
+      <c r="AH5" s="4" t="str">
         <f t="shared" si="4"/>
         <v>e</v>
       </c>
-      <c r="AG5" s="3" t="str">
+      <c r="AI5" s="4" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AH5" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>g</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AJ5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AL5" s="3" t="str">
-        <f t="shared" ref="AL5:AP5" si="5">MID(AL1,4,1)</f>
+      <c r="AM5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN5" s="4" t="str">
+        <f t="shared" ref="AN5:AP5" si="5">MID(AN1,4,1)</f>
         <v>b</v>
       </c>
-      <c r="AM5" s="3" t="str">
+      <c r="AO5" s="4" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="AN5" s="3" t="str">
+      <c r="AP5" s="4" t="str">
         <f t="shared" si="5"/>
         <v>c</v>
       </c>
-      <c r="AO5" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="AQ5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR5" s="4" t="str">
+        <f t="shared" ref="AR5:AS5" si="6">MID(AR1,4,1)</f>
         <v>m</v>
       </c>
-      <c r="AP5" s="3" t="str">
-        <f t="shared" si="5"/>
+      <c r="AS5" s="4" t="str">
+        <f t="shared" si="6"/>
         <v>h</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B7" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="1">
-        <v>50.0</v>
-      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="G28" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/resources/elements.xlsx
+++ b/resources/elements.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="adjectives" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="nouns" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="of" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="enemies" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="286">
   <si>
     <t>name</t>
   </si>
@@ -246,15 +247,15 @@
     <t>king gizard, the</t>
   </si>
   <si>
+    <t>bass-boosted</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
     <t>att</t>
   </si>
   <si>
-    <t>random</t>
-  </si>
-  <si>
     <t>def</t>
   </si>
   <si>
@@ -270,6 +271,9 @@
     <t>k</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
@@ -717,9 +721,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>bad, abstract, wizard, machine, baseball, emotion, gun, throw, knight, classic, lgbt, cute, patriotic, gold, audio, basic, fancy</t>
   </si>
   <si>
@@ -739,6 +740,138 @@
   </si>
   <si>
     <t>cute, lgbt</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>charles</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>dylan</t>
+  </si>
+  <si>
+    <t>vinny</t>
+  </si>
+  <si>
+    <t>zach</t>
+  </si>
+  <si>
+    <t>glorbo</t>
+  </si>
+  <si>
+    <t>gorgug</t>
+  </si>
+  <si>
+    <t>grungo</t>
+  </si>
+  <si>
+    <t>bingus</t>
+  </si>
+  <si>
+    <t>bingy</t>
+  </si>
+  <si>
+    <t>bungo</t>
+  </si>
+  <si>
+    <t>greepy</t>
+  </si>
+  <si>
+    <t>flub</t>
+  </si>
+  <si>
+    <t>grub</t>
+  </si>
+  <si>
+    <t>gru</t>
+  </si>
+  <si>
+    <t>gub</t>
+  </si>
+  <si>
+    <t>grahm</t>
+  </si>
+  <si>
+    <t>griswaldo guthrie</t>
+  </si>
+  <si>
+    <t>gorshen grandiliquent</t>
+  </si>
+  <si>
+    <t>zig</t>
+  </si>
+  <si>
+    <t>zug</t>
+  </si>
+  <si>
+    <t>zog</t>
+  </si>
+  <si>
+    <t>bunkle</t>
+  </si>
+  <si>
+    <t>bunkis</t>
+  </si>
+  <si>
+    <t>nunkis</t>
+  </si>
+  <si>
+    <t>gumbo</t>
+  </si>
+  <si>
+    <t>zapdos</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>the strange</t>
+  </si>
+  <si>
+    <t>the elder</t>
+  </si>
+  <si>
+    <t>village idiot</t>
+  </si>
+  <si>
+    <t>the younger</t>
+  </si>
+  <si>
+    <t>the sleepy</t>
+  </si>
+  <si>
+    <t>&amp; bean</t>
+  </si>
+  <si>
+    <t>beepy, the eepy zeepy guy</t>
+  </si>
+  <si>
+    <t>greepus</t>
+  </si>
+  <si>
+    <t>bonkler</t>
+  </si>
+  <si>
+    <t>the shrew</t>
+  </si>
+  <si>
+    <t>spencer agnew</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>the third</t>
+  </si>
+  <si>
+    <t>the fourth</t>
+  </si>
+  <si>
+    <t>the nineteen thousand, four hundred and fifty third</t>
   </si>
 </sst>
 </file>
@@ -817,6 +950,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1259,10 +1396,13 @@
       <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="CA1" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -1399,8 +1539,8 @@
       <c r="AT2" s="1">
         <v>5.0</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>79</v>
+      <c r="AU2" s="1">
+        <v>0.0</v>
       </c>
       <c r="AV2" s="1">
         <v>9.0</v>
@@ -1493,6 +1633,9 @@
         <v>9.0</v>
       </c>
       <c r="BZ2" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="CA2" s="1">
         <v>6.0</v>
       </c>
     </row>
@@ -1635,8 +1778,8 @@
       <c r="AT3" s="1">
         <v>6.0</v>
       </c>
-      <c r="AU3" s="1" t="s">
-        <v>79</v>
+      <c r="AU3" s="1">
+        <v>0.0</v>
       </c>
       <c r="AV3" s="1">
         <v>0.0</v>
@@ -1729,6 +1872,9 @@
         <v>9.0</v>
       </c>
       <c r="BZ3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="CA3" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -1868,11 +2014,11 @@
       <c r="AS4" s="1">
         <v>0.0</v>
       </c>
-      <c r="AT4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>79</v>
+      <c r="AT4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0.0</v>
       </c>
       <c r="AV4" s="1">
         <v>9.0</v>
@@ -1965,6 +2111,9 @@
         <v>9.0</v>
       </c>
       <c r="BZ4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="CA4" s="1">
         <v>6.0</v>
       </c>
     </row>
@@ -2274,98 +2423,101 @@
       <c r="BY5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BZ5" s="1" t="str">
-        <f>LEFT(BZ1)</f>
+      <c r="BZ5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA5" s="1" t="str">
+        <f>LEFT(CA1)</f>
         <v>e</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>30</v>
@@ -2377,147 +2529,150 @@
         <v>30</v>
       </c>
       <c r="AG6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="AP6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AV6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AX6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AY6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM6" s="1" t="s">
+      <c r="BT6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BN6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>105</v>
+      <c r="CA6" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1">
         <v>16.0</v>
@@ -2748,6 +2903,9 @@
         <v>2.0</v>
       </c>
       <c r="BZ7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="CA7" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -2774,198 +2932,198 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1">
         <v>9.0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -3090,8 +3248,8 @@
       <c r="AP2" s="1">
         <v>10.0</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>79</v>
+      <c r="AQ2" s="1">
+        <v>0.0</v>
       </c>
       <c r="AR2" s="1">
         <v>-5.0</v>
@@ -3287,8 +3445,8 @@
       <c r="AP3" s="1">
         <v>3.0</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>79</v>
+      <c r="AQ3" s="1">
+        <v>0.0</v>
       </c>
       <c r="AR3" s="1">
         <v>0.0</v>
@@ -3484,8 +3642,8 @@
       <c r="AP4" s="1">
         <v>2.0</v>
       </c>
-      <c r="AQ4" s="1" t="s">
-        <v>79</v>
+      <c r="AQ4" s="1">
+        <v>0.0</v>
       </c>
       <c r="AR4" s="1">
         <v>-10.0</v>
@@ -3715,7 +3873,7 @@
         <v>a</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP5" s="1" t="str">
         <f t="shared" ref="AP5:BM5" si="2">LEFT(AP1)</f>
@@ -3816,204 +3974,204 @@
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1">
         <v>16.0</v>
@@ -4231,138 +4389,138 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -4421,8 +4579,8 @@
       <c r="T2" s="1">
         <v>2.0</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>79</v>
+      <c r="U2" s="1">
+        <v>0.0</v>
       </c>
       <c r="V2" s="1">
         <v>3.0</v>
@@ -4558,8 +4716,8 @@
       <c r="T3" s="1">
         <v>0.0</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>79</v>
+      <c r="U3" s="1">
+        <v>0.0</v>
       </c>
       <c r="V3" s="1">
         <v>10.0</v>
@@ -4695,8 +4853,8 @@
       <c r="T4" s="1">
         <v>13.0</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>79</v>
+      <c r="U4" s="1">
+        <v>0.0</v>
       </c>
       <c r="V4" s="1">
         <v>2.0</v>
@@ -4832,10 +4990,10 @@
         <v>b</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R5" s="4" t="str">
         <f t="shared" ref="R5:S5" si="2">MID(R1,4,1)</f>
@@ -4846,10 +5004,10 @@
         <v>s</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" ref="V5:W5" si="3">MID(V1,4,1)</f>
@@ -4860,27 +5018,27 @@
         <v>s</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA5" s="4" t="str">
         <f>MID(AA1,4,1)</f>
         <v>t</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f>MID(AC1,4,1)</f>
         <v>p</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AE5" s="4" t="str">
         <f t="shared" ref="AE5:AI5" si="4">MID(AE1,4,1)</f>
@@ -4903,16 +5061,16 @@
         <v>s</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN5" s="4" t="str">
         <f t="shared" ref="AN5:AP5" si="5">MID(AN1,4,1)</f>
@@ -4927,7 +5085,7 @@
         <v>c</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="AR5" s="4" t="str">
         <f t="shared" ref="AR5:AS5" si="6">MID(AR1,4,1)</f>
@@ -4940,25 +5098,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>235</v>
@@ -4967,22 +5125,22 @@
         <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>30</v>
@@ -4991,64 +5149,64 @@
         <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>236</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL6" s="1" t="s">
         <v>239</v>
@@ -5057,19 +5215,19 @@
         <v>240</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>241</v>
@@ -5077,7 +5235,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1">
         <v>50.0</v>
@@ -5278,4 +5436,155 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/elements.xlsx
+++ b/resources/elements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="287">
   <si>
     <t>name</t>
   </si>
@@ -283,13 +283,13 @@
     <t>baseball</t>
   </si>
   <si>
-    <t>emotion, bad</t>
+    <t>emotion bad</t>
   </si>
   <si>
     <t>abstract</t>
   </si>
   <si>
-    <t>knight, bad</t>
+    <t>knight bad</t>
   </si>
   <si>
     <t>ghost</t>
@@ -298,10 +298,10 @@
     <t>machine</t>
   </si>
   <si>
-    <t>wizard, emotion</t>
-  </si>
-  <si>
-    <t>machine, wizard</t>
+    <t>wizard emotion</t>
+  </si>
+  <si>
+    <t>machine wizard</t>
   </si>
   <si>
     <t>wizard</t>
@@ -313,10 +313,10 @@
     <t>bad</t>
   </si>
   <si>
-    <t>wizard, machine</t>
-  </si>
-  <si>
-    <t>bad, emotion</t>
+    <t>wizard machine</t>
+  </si>
+  <si>
+    <t>bad emotion</t>
   </si>
   <si>
     <t>throw</t>
@@ -325,7 +325,7 @@
     <t>classic</t>
   </si>
   <si>
-    <t>bad, abstract</t>
+    <t>bad abstract</t>
   </si>
   <si>
     <t>audio</t>
@@ -340,10 +340,10 @@
     <t>gold</t>
   </si>
   <si>
-    <t>abstract, emotion</t>
-  </si>
-  <si>
-    <t>classic, notebook</t>
+    <t>abstract emotion</t>
+  </si>
+  <si>
+    <t>classic notebook</t>
   </si>
   <si>
     <t>emotion</t>
@@ -352,7 +352,7 @@
     <t>fancy</t>
   </si>
   <si>
-    <t>basic, emotion</t>
+    <t>basic emotion</t>
   </si>
   <si>
     <t>shiny</t>
@@ -379,6 +379,9 @@
     <t>sock</t>
   </si>
   <si>
+    <t>regalia</t>
+  </si>
+  <si>
     <t>earring (1)</t>
   </si>
   <si>
@@ -547,25 +550,25 @@
     <t>knight</t>
   </si>
   <si>
-    <t>basic, lgbt</t>
-  </si>
-  <si>
-    <t>classic, knight</t>
-  </si>
-  <si>
-    <t>basic, bad</t>
-  </si>
-  <si>
-    <t>wizard, throw</t>
-  </si>
-  <si>
-    <t>knight, classic</t>
-  </si>
-  <si>
-    <t>lgbt, cute</t>
-  </si>
-  <si>
-    <t>emotion, notebook</t>
+    <t>basic lgbt</t>
+  </si>
+  <si>
+    <t>classic knight</t>
+  </si>
+  <si>
+    <t>basic bad</t>
+  </si>
+  <si>
+    <t>wizard throw</t>
+  </si>
+  <si>
+    <t>knight classic</t>
+  </si>
+  <si>
+    <t>lgbt cute</t>
+  </si>
+  <si>
+    <t>emotion notebook</t>
   </si>
   <si>
     <t>of truth</t>
@@ -721,25 +724,25 @@
     <t>c</t>
   </si>
   <si>
-    <t>bad, abstract, wizard, machine, baseball, emotion, gun, throw, knight, classic, lgbt, cute, patriotic, gold, audio, basic, fancy</t>
-  </si>
-  <si>
-    <t>bad, classic</t>
-  </si>
-  <si>
-    <t>bad, patriotic</t>
-  </si>
-  <si>
-    <t>lgbt, bad</t>
-  </si>
-  <si>
-    <t>baseball, emotion</t>
-  </si>
-  <si>
-    <t>classic, abstract</t>
-  </si>
-  <si>
-    <t>cute, lgbt</t>
+    <t>bad abstract wizard machine baseball emotion gun throw knight classic lgbt cute patriotic gold audio basic fancy</t>
+  </si>
+  <si>
+    <t>bad classic</t>
+  </si>
+  <si>
+    <t>bad patriotic</t>
+  </si>
+  <si>
+    <t>lgbt bad</t>
+  </si>
+  <si>
+    <t>baseball emotion</t>
+  </si>
+  <si>
+    <t>classic abstract</t>
+  </si>
+  <si>
+    <t>cute lgbt</t>
   </si>
   <si>
     <t>firstName</t>
@@ -2949,176 +2952,176 @@
       <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="1">
-        <v>9.0</v>
+      <c r="I1" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
@@ -3746,7 +3749,7 @@
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>r</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3873,7 +3876,7 @@
         <v>a</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP5" s="1" t="str">
         <f t="shared" ref="AP5:BM5" si="2">LEFT(AP1)</f>
@@ -3980,31 +3983,31 @@
         <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>101</v>
@@ -4016,7 +4019,7 @@
         <v>88</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>106</v>
@@ -4046,16 +4049,16 @@
         <v>105</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>93</v>
@@ -4064,25 +4067,25 @@
         <v>93</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL6" s="1" t="s">
         <v>101</v>
@@ -4163,7 +4166,7 @@
         <v>96</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BM6" s="1" t="s">
         <v>98</v>
@@ -4389,133 +4392,133 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
@@ -4990,10 +4993,10 @@
         <v>b</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R5" s="4" t="str">
         <f t="shared" ref="R5:S5" si="2">MID(R1,4,1)</f>
@@ -5004,10 +5007,10 @@
         <v>s</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" ref="V5:W5" si="3">MID(V1,4,1)</f>
@@ -5018,27 +5021,27 @@
         <v>s</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA5" s="4" t="str">
         <f>MID(AA1,4,1)</f>
         <v>t</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f>MID(AC1,4,1)</f>
         <v>p</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AE5" s="4" t="str">
         <f t="shared" ref="AE5:AI5" si="4">MID(AE1,4,1)</f>
@@ -5061,16 +5064,16 @@
         <v>s</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN5" s="4" t="str">
         <f t="shared" ref="AN5:AP5" si="5">MID(AN1,4,1)</f>
@@ -5119,19 +5122,19 @@
         <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>96</v>
@@ -5164,7 +5167,7 @@
         <v>93</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>110</v>
@@ -5176,7 +5179,7 @@
         <v>104</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>30</v>
@@ -5194,13 +5197,13 @@
         <v>102</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>110</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>110</v>
@@ -5209,10 +5212,10 @@
         <v>88</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>97</v>
@@ -5230,7 +5233,7 @@
         <v>105</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7">
@@ -5367,7 +5370,7 @@
         <v>4.0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -5450,138 +5453,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
